--- a/hdw/Supercap_Demo/Supercap_Demo/Supercap_Demo.xlsx
+++ b/hdw/Supercap_Demo/Supercap_Demo/Supercap_Demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\Demo Boards\Supercap_Demo\hdw\Supercap_Demo\Supercap_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{14008F2F-2CF1-457B-8DCC-30F65C8096D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{88968C6E-2E75-417D-AB4A-D4CD9694E7CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Qty</t>
   </si>
@@ -37,9 +37,6 @@
     <t>display_footprint</t>
   </si>
   <si>
-    <t>C201</t>
-  </si>
-  <si>
     <t>100uF</t>
   </si>
   <si>
@@ -49,7 +46,19 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>399-4938-1-ND</t>
+    <t>1276-6641-1-ND</t>
+  </si>
+  <si>
+    <t>C302</t>
+  </si>
+  <si>
+    <t>2.2nF</t>
+  </si>
+  <si>
+    <t>399-1280-1-ND</t>
+  </si>
+  <si>
+    <t>C304</t>
   </si>
   <si>
     <t>15F</t>
@@ -58,46 +67,7 @@
     <t>478-10017-ND</t>
   </si>
   <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>399-6856-1-ND</t>
-  </si>
-  <si>
-    <t>C307</t>
-  </si>
-  <si>
-    <t>470pF</t>
-  </si>
-  <si>
-    <t>399-1075-1-ND</t>
-  </si>
-  <si>
-    <t>22nF</t>
-  </si>
-  <si>
-    <t>399-1280-1-ND</t>
-  </si>
-  <si>
-    <t>C405</t>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>1276-1188-1-ND</t>
-  </si>
-  <si>
-    <t>C406</t>
-  </si>
-  <si>
-    <t>33pF</t>
-  </si>
-  <si>
-    <t>490-6126-1-ND</t>
+    <t>SCC</t>
   </si>
   <si>
     <t>D201</t>
@@ -109,15 +79,6 @@
     <t>MM5Z10VT1GOSCT-ND</t>
   </si>
   <si>
-    <t>D401</t>
-  </si>
-  <si>
-    <t>BAT54W</t>
-  </si>
-  <si>
-    <t>1727-3570-1-ND</t>
-  </si>
-  <si>
     <t>J201</t>
   </si>
   <si>
@@ -130,15 +91,36 @@
     <t>VOUT</t>
   </si>
   <si>
-    <t>3.3uH</t>
-  </si>
-  <si>
-    <t>541-1237-1-ND</t>
+    <t>JP301</t>
+  </si>
+  <si>
+    <t>~CHGEN</t>
+  </si>
+  <si>
+    <t>JP302</t>
+  </si>
+  <si>
+    <t>~BSTEN</t>
+  </si>
+  <si>
+    <t>L301</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>541-1236-1-ND</t>
   </si>
   <si>
     <t>IHLP2020</t>
   </si>
   <si>
+    <t>Shunt</t>
+  </si>
+  <si>
+    <t>S9337-ND</t>
+  </si>
+  <si>
     <t>Q201</t>
   </si>
   <si>
@@ -148,10 +130,13 @@
     <t>IRF7404PBFCT-ND</t>
   </si>
   <si>
-    <t>2N7002</t>
-  </si>
-  <si>
-    <t>2N7002-GMCCT-ND</t>
+    <t>Q301</t>
+  </si>
+  <si>
+    <t>IPC100N04S51R7ATMA1</t>
+  </si>
+  <si>
+    <t>IPC100N04S51R7ATMA1CT-ND</t>
   </si>
   <si>
     <t>R201</t>
@@ -166,157 +151,109 @@
     <t>1M</t>
   </si>
   <si>
-    <t>311-1.00MHRCT-ND</t>
-  </si>
-  <si>
-    <t>R304</t>
-  </si>
-  <si>
-    <t>124k</t>
-  </si>
-  <si>
-    <t>P124KHCT-ND</t>
-  </si>
-  <si>
-    <t>RHM10.0ADCT-ND</t>
+    <t>A129724CT-ND</t>
   </si>
   <si>
     <t>R307</t>
   </si>
   <si>
-    <t>3.6k</t>
-  </si>
-  <si>
-    <t>P3.60KHCT-ND</t>
+    <t>121k</t>
+  </si>
+  <si>
+    <t>RMCF0603FT121KCT-ND</t>
   </si>
   <si>
     <t>R308</t>
   </si>
   <si>
-    <t>2.2M</t>
-  </si>
-  <si>
-    <t>P2.20MHCT-ND</t>
+    <t>75k</t>
+  </si>
+  <si>
+    <t>RMCF0603FT75K0CT-ND</t>
   </si>
   <si>
     <t>R309</t>
   </si>
   <si>
-    <t>3.65k</t>
-  </si>
-  <si>
-    <t>P3.65KHCT-ND</t>
+    <t>12m</t>
+  </si>
+  <si>
+    <t>408-1545-1-ND</t>
   </si>
   <si>
     <t>R310</t>
   </si>
   <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>R311</t>
+  </si>
+  <si>
+    <t>1.07M</t>
+  </si>
+  <si>
+    <t>RMCF0603FT1M07CT-ND</t>
+  </si>
+  <si>
+    <t>R312</t>
+  </si>
+  <si>
     <t>340k</t>
   </si>
   <si>
     <t>P340KHCT-ND</t>
   </si>
   <si>
-    <t>R312</t>
-  </si>
-  <si>
-    <t>324k</t>
-  </si>
-  <si>
-    <t>P324KHCT-ND</t>
-  </si>
-  <si>
     <t>R313</t>
   </si>
   <si>
-    <t>276k</t>
-  </si>
-  <si>
-    <t>541-267KHCT-ND</t>
-  </si>
-  <si>
-    <t>R403</t>
-  </si>
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>RMCF0603FT100KCT-ND</t>
-  </si>
-  <si>
-    <t>R406</t>
-  </si>
-  <si>
-    <t>1.07M</t>
-  </si>
-  <si>
-    <t>RMCF0603FT1M07CT-ND</t>
-  </si>
-  <si>
-    <t>R407</t>
-  </si>
-  <si>
-    <t>590k</t>
-  </si>
-  <si>
-    <t>311-590KHRCT-ND</t>
+    <t>931k</t>
+  </si>
+  <si>
+    <t>P931KHCT-ND</t>
+  </si>
+  <si>
+    <t>R314</t>
+  </si>
+  <si>
+    <t>392k</t>
+  </si>
+  <si>
+    <t>RMCF0603FT392KCT-ND</t>
   </si>
   <si>
     <t>U301</t>
   </si>
   <si>
-    <t>LTC3128-UFD</t>
-  </si>
-  <si>
-    <t>LTC3128EUFD#PBF-ND</t>
-  </si>
-  <si>
-    <t>U302</t>
-  </si>
-  <si>
-    <t>LTC4419DD</t>
-  </si>
-  <si>
-    <t>LTC4419IDD#PBF</t>
-  </si>
-  <si>
-    <t>U401</t>
-  </si>
-  <si>
-    <t>LTC3129UD</t>
-  </si>
-  <si>
-    <t>LTC3129EUD#PBF-ND</t>
-  </si>
-  <si>
-    <t>C301, C302, C308, C401, C402, C407, C408</t>
-  </si>
-  <si>
-    <t>C303, C304</t>
-  </si>
-  <si>
-    <t>C305, C306</t>
-  </si>
-  <si>
-    <t>C403, C404</t>
-  </si>
-  <si>
-    <t>L301, L401</t>
-  </si>
-  <si>
-    <t>Q301, Q401</t>
-  </si>
-  <si>
-    <t>R301, R302, R303, R305, R311, R314, R315, R402, R404, R405</t>
-  </si>
-  <si>
-    <t>R306, R401</t>
+    <t>LTC4041UFD</t>
+  </si>
+  <si>
+    <t>LTC4041IUFD#PBF-ND</t>
+  </si>
+  <si>
+    <t>C201, C305</t>
+  </si>
+  <si>
+    <t>C301, C303</t>
+  </si>
+  <si>
+    <t>MK301, MK302</t>
+  </si>
+  <si>
+    <t>R301, R302, R303, R304, R305, R306</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -794,9 +731,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1154,18 +1094,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="18.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6328125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1181,50 +1123,50 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2">
+        <v>7343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
-        <v>7343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>1206</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1232,16 +1174,16 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
+      <c r="E4" s="2">
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1249,8 +1191,8 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1">
-        <v>603</v>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1258,33 +1200,24 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1">
-        <v>603</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1">
-        <v>603</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1292,16 +1225,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="1">
-        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1314,83 +1241,74 @@
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1407,14 +1325,16 @@
       <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>42</v>
@@ -1422,7 +1342,9 @@
       <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="2">
+        <v>603</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -1437,24 +1359,24 @@
       <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>603</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1">
+        <v>49</v>
+      </c>
+      <c r="E18" s="2">
         <v>603</v>
       </c>
     </row>
@@ -1463,32 +1385,32 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1">
-        <v>603</v>
+        <v>52</v>
+      </c>
+      <c r="E19" s="2">
+        <v>805</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="1">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="1">
+        <v>55</v>
+      </c>
+      <c r="E20" s="2">
         <v>603</v>
       </c>
     </row>
@@ -1497,15 +1419,15 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="1">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2">
         <v>603</v>
       </c>
     </row>
@@ -1514,15 +1436,15 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="1">
+        <v>61</v>
+      </c>
+      <c r="E22" s="2">
         <v>603</v>
       </c>
     </row>
@@ -1531,15 +1453,15 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="1">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
         <v>603</v>
       </c>
     </row>
@@ -1548,15 +1470,15 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="1">
+        <v>67</v>
+      </c>
+      <c r="E24" s="2">
         <v>603</v>
       </c>
     </row>
@@ -1565,132 +1487,17 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="1">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="1">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="1">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="1">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="1">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>